--- a/info/participantCategories.xlsx
+++ b/info/participantCategories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadestasio/Desktop/REV/REV_SST/info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadestasio/Desktop/REV_scripts/behavioral/REV_SST/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -694,7 +694,7 @@
   <dimension ref="A1:G998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1355,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
